--- a/DataInterface/data/assess/first_part_marked.xlsx
+++ b/DataInterface/data/assess/first_part_marked.xlsx
@@ -5489,11 +5489,11 @@
   </sheetPr>
   <dimension ref="A1:F559"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A519" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F560" activeCellId="0" sqref="F560"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.42"/>
@@ -5695,7 +5695,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,7 +5795,7 @@
         <v>59</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5815,7 +5815,7 @@
         <v>62</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5855,7 +5855,7 @@
         <v>70</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5995,7 +5995,7 @@
         <v>97</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6015,7 +6015,7 @@
         <v>101</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6055,7 +6055,7 @@
         <v>108</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6135,7 +6135,7 @@
         <v>122</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6175,7 +6175,7 @@
         <v>128</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6255,7 +6255,7 @@
         <v>143</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6275,7 +6275,7 @@
         <v>147</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6315,7 +6315,7 @@
         <v>154</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6335,7 +6335,7 @@
         <v>158</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6375,7 +6375,7 @@
         <v>165</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6395,7 +6395,7 @@
         <v>169</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6415,7 +6415,7 @@
         <v>173</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6455,7 +6455,7 @@
         <v>181</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6475,7 +6475,7 @@
         <v>185</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6515,7 +6515,7 @@
         <v>192</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6595,7 +6595,7 @@
         <v>208</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6635,7 +6635,7 @@
         <v>216</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,7 +6655,7 @@
         <v>219</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6695,7 +6695,7 @@
         <v>226</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6715,7 +6715,7 @@
         <v>230</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6735,7 +6735,7 @@
         <v>234</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6775,7 +6775,7 @@
         <v>240</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6795,7 +6795,7 @@
         <v>169</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6915,7 +6915,7 @@
         <v>260</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6955,7 +6955,7 @@
         <v>268</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7035,7 +7035,7 @@
         <v>280</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,7 +7055,7 @@
         <v>284</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7115,7 +7115,7 @@
         <v>294</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,7 +7175,7 @@
         <v>306</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7235,7 +7235,7 @@
         <v>315</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7375,7 +7375,7 @@
         <v>340</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7415,7 +7415,7 @@
         <v>348</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7455,7 +7455,7 @@
         <v>355</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7475,7 +7475,7 @@
         <v>359</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7515,7 +7515,7 @@
         <v>367</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7535,7 +7535,7 @@
         <v>371</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
